--- a/季报汇总-2024-08-29.xlsx
+++ b/季报汇总-2024-08-29.xlsx
@@ -724,7 +724,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G1"/>
+  <dimension ref="B1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -768,7 +768,34 @@
       </c>
       <c r="G1" s="27" t="n"/>
     </row>
-    <row r="2" ht="14" customHeight="1"/>
+    <row r="2" ht="14" customHeight="1">
+      <c r="B2" s="34" t="inlineStr">
+        <is>
+          <t>603091.SH</t>
+        </is>
+      </c>
+      <c r="C2" s="29">
+        <f t="array" ref="C2">[1]!s_info_name(B2)</f>
+        <v/>
+      </c>
+      <c r="D2" s="39">
+        <f t="array" ref="D2">[1]!s_info_industry_sw_2021(B2,"",1)</f>
+        <v/>
+      </c>
+      <c r="E2" s="31">
+        <f t="array" ref="E2">IF([1]!s_info_industry_sw_2021(B2,"",2)="消费电子",分工!$E$4,VLOOKUP(D2,分工!$B$2:'分工'!$C$32,2,0))</f>
+        <v/>
+      </c>
+      <c r="F2" s="35" t="inlineStr">
+        <is>
+          <t>603091</t>
+        </is>
+      </c>
+      <c r="G2" s="33">
+        <f>IFERROR(VLOOKUP(C2,重点公司!$C$2:$E$800,2,FALSE),0)</f>
+        <v/>
+      </c>
+    </row>
     <row r="3" ht="14" customHeight="1"/>
     <row r="4" ht="14" customHeight="1"/>
     <row r="5" ht="14" customHeight="1"/>
